--- a/Unity/Assets/Config/Excel/AbilityConfig/AoeConfig/AoeCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/AoeConfig/AoeCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\AoeConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422BF3EE-DEF7-42BF-8235-5CECE59B71DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F6C333-7787-410E-8BE4-B1910B30023F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
   <si>
     <t>##var</t>
   </si>
@@ -166,33 +166,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>$type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$value</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>对象选择器</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>对象选择器参数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCallCasterUnit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCallAutoSelf</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCallOnAttackUnit</t>
-  </si>
-  <si>
     <t>延迟多久后触发action</t>
   </si>
   <si>
@@ -344,6 +321,16 @@
   <si>
     <t>是否需要检测Mesh(判断攻击目标时)</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObjectConfig_OnAttackUnit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObjectConfig_Self</t>
+  </si>
+  <si>
+    <t>SelectObjectConfig_CasterUnit</t>
   </si>
 </sst>
 </file>
@@ -418,7 +405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -474,19 +461,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -497,7 +471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -507,9 +481,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -520,12 +496,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -805,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI24"/>
+  <dimension ref="A1:AH24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4:W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -832,10 +802,9 @@
     <col min="21" max="21" width="16.88671875" customWidth="1"/>
     <col min="22" max="22" width="19.109375" customWidth="1"/>
     <col min="23" max="23" width="25.77734375" customWidth="1"/>
-    <col min="24" max="24" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -854,34 +823,34 @@
         <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="Q1" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R1" s="12" t="s">
         <v>16</v>
@@ -891,7 +860,7 @@
       <c r="U1" s="13"/>
       <c r="V1" s="13"/>
       <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
+      <c r="X1"/>
       <c r="Y1"/>
       <c r="Z1"/>
       <c r="AA1"/>
@@ -902,9 +871,8 @@
       <c r="AF1"/>
       <c r="AG1"/>
       <c r="AH1"/>
-      <c r="AI1"/>
-    </row>
-    <row r="2" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -925,24 +893,24 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="17"/>
+      <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
       <c r="AA2"/>
@@ -953,9 +921,8 @@
       <c r="AF2"/>
       <c r="AG2"/>
       <c r="AH2"/>
-      <c r="AI2"/>
-    </row>
-    <row r="3" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -975,12 +942,8 @@
       <c r="T3" s="3"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
-      <c r="W3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="W3" s="8"/>
+      <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
       <c r="AA3"/>
@@ -991,9 +954,8 @@
       <c r="AF3"/>
       <c r="AG3"/>
       <c r="AH3"/>
-      <c r="AI3"/>
-    </row>
-    <row r="4" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1018,7 +980,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>18</v>
@@ -1029,27 +991,27 @@
       <c r="M4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>44</v>
+      <c r="N4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
+      <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
@@ -1060,9 +1022,8 @@
       <c r="AF4"/>
       <c r="AG4"/>
       <c r="AH4"/>
-      <c r="AI4"/>
-    </row>
-    <row r="5" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1090,7 +1051,7 @@
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
+      <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5"/>
       <c r="AA5"/>
@@ -1101,9 +1062,8 @@
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
-      <c r="AI5"/>
-    </row>
-    <row r="6" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1122,52 +1082,50 @@
         <v>13</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="R6" s="7"/>
       <c r="S6" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6"/>
       <c r="AA6"/>
@@ -1178,11 +1136,10 @@
       <c r="AF6"/>
       <c r="AG6"/>
       <c r="AH6"/>
-      <c r="AI6"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1194,7 +1151,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H7" s="6">
         <v>6</v>
@@ -1215,36 +1172,33 @@
         <v>1</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="Q7">
         <v>1</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="S7" s="6">
         <v>0</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="X7" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="E8" s="7"/>
       <c r="F8" s="6"/>
@@ -1256,7 +1210,7 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="R8" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="S8" s="6">
         <v>0</v>
@@ -1267,13 +1221,10 @@
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="X8" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="6"/>
@@ -1285,7 +1236,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="R9" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="S9" s="6">
         <v>0</v>
@@ -1296,13 +1247,10 @@
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="X9" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="E10" s="7"/>
       <c r="F10" s="6"/>
@@ -1314,7 +1262,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="R10" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="S10" s="6">
         <v>0</v>
@@ -1325,48 +1273,45 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="X10" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -1430,10 +1375,9 @@
       <c r="P24" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="W2:X2"/>
+  <mergeCells count="2">
+    <mergeCell ref="R1:W1"/>
+    <mergeCell ref="R4:W4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/AoeConfig/AoeCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/AoeConfig/AoeCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\AoeConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F6C333-7787-410E-8BE4-B1910B30023F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB32267E-92AD-42BA-8F34-98448BB70895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,14 +323,13 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SelectObjectConfig_OnAttackUnit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectObjectConfig_Self</t>
-  </si>
-  <si>
-    <t>SelectObjectConfig_CasterUnit</t>
+    <t>SelectObject_CasterUnit</t>
+  </si>
+  <si>
+    <t>SelectObject_OnAttackUnit</t>
+  </si>
+  <si>
+    <t>SelectObject_Self</t>
   </si>
 </sst>
 </file>
@@ -778,7 +777,7 @@
   <dimension ref="A1:AH24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4:W4"/>
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1194,7 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -1221,7 +1220,7 @@
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
@@ -1247,7 +1246,7 @@
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
@@ -1273,7 +1272,7 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">

--- a/Unity/Assets/Config/Excel/AbilityConfig/AoeConfig/AoeCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/AoeConfig/AoeCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\AoeConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB32267E-92AD-42BA-8F34-98448BB70895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5988DB5A-296A-4DC6-99CA-F3FDE5F18DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
   <si>
     <t>##var</t>
   </si>
@@ -162,10 +162,6 @@
     <t>action_id</t>
   </si>
   <si>
-    <t>actionCallParam</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>对象选择器</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -251,85 +247,103 @@
     <t>AoeOnCreate</t>
   </si>
   <si>
+    <t>AoeOnEnter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AoeOnExist</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aoeTrig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tickTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;),float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveSpeed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotationSpeed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bodyHeight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>转身速度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体高度(判断位置，判断伤害什么的)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>move_timeline_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move行为</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timeline_Move1</t>
+  </si>
+  <si>
+    <t>aoe工作周期(秒)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>isNeedChkMesh</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>是否需要检测Mesh(判断攻击目标时)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayAudio_solo</t>
+  </si>
+  <si>
+    <t>PlayAudio_aoe</t>
+  </si>
+  <si>
+    <t>AoeOnTick1</t>
+  </si>
+  <si>
+    <t>BuffAdd_PlayerGlobalBuffAdd_ToTower_AttackInterval_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aoeSelectObjectType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AoeSelf</t>
+  </si>
+  <si>
+    <t>AoeChgList</t>
+  </si>
+  <si>
+    <t>AoeInList</t>
+  </si>
+  <si>
     <t>AoeOnRemoved</t>
-  </si>
-  <si>
-    <t>AoeOnEnter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AoeOnExist</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>aoeTrig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tickTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=;),float</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>moveSpeed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>rotationSpeed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bodyHeight</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动速度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>转身速度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>身体高度(判断位置，判断伤害什么的)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>move_timeline_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Move行为</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Timeline_Move1</t>
-  </si>
-  <si>
-    <t>aoe工作周期(秒)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>isNeedChkMesh</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>是否需要检测Mesh(判断攻击目标时)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectObject_CasterUnit</t>
-  </si>
-  <si>
-    <t>SelectObject_OnAttackUnit</t>
-  </si>
-  <si>
-    <t>SelectObject_Self</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -774,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH24"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -822,34 +836,34 @@
         <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="O1" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R1" s="12" t="s">
         <v>16</v>
@@ -892,22 +906,22 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="W2" s="11" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="X2"/>
       <c r="Y2"/>
@@ -979,7 +993,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>18</v>
@@ -991,19 +1005,19 @@
         <v>18</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
@@ -1081,48 +1095,48 @@
         <v>13</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="R6" s="7"/>
       <c r="S6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X6"/>
       <c r="Y6"/>
@@ -1138,7 +1152,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1150,7 +1164,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="6">
         <v>6</v>
@@ -1171,30 +1185,30 @@
         <v>1</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S7" s="6">
         <v>0</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -1209,18 +1223,18 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="R8" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S8" s="6">
         <v>0</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
@@ -1235,18 +1249,18 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="R9" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="S9" s="6">
         <v>0</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
@@ -1272,29 +1286,86 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
       <c r="P11" s="6"/>
+      <c r="R11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="S11" s="6">
+        <v>0</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
       <c r="P12" s="6"/>
+      <c r="R12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
       <c r="P13" s="6"/>
+      <c r="R13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S13" s="6">
+        <v>0</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="H14" s="6"/>
@@ -1302,6 +1373,8 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="P14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="T14" s="6"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="H15" s="6"/>
@@ -1309,6 +1382,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="P15" s="6"/>
+      <c r="T15" s="6"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="H16" s="6"/>
@@ -1372,6 +1446,13 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="P25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Unity/Assets/Config/Excel/AbilityConfig/AoeConfig/AoeCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/AoeConfig/AoeCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\AoeConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5988DB5A-296A-4DC6-99CA-F3FDE5F18DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26DC9BD-4FD3-4845-9700-BB36EB0D19DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
   <si>
     <t>##var</t>
   </si>
@@ -172,22 +172,6 @@
     <t>delayTime</t>
   </si>
   <si>
-    <t>actionCondition1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actionCondition2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件2(cond11&amp;cond12|cond21&amp;cond22)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件1(cond11&amp;cond12|cond21&amp;cond22)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>bodyRadius</t>
   </si>
   <si>
@@ -343,6 +327,54 @@
   </si>
   <si>
     <t>AoeOnRemoved</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chkCondition1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chkCondition1SelectObj</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chkCondition2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chkCondition2SelectObj</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查条件1(cond11&amp;cond12|cond21&amp;cond22)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测条件1对象选择器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查条件2(cond11&amp;cond12|cond21&amp;cond22)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测条件2对象选择器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选条件1(cond11&amp;cond12|cond21&amp;cond22)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选条件2(cond11&amp;cond12|cond21&amp;cond22)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>filterCondition1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>filterCondition2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -350,7 +382,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +429,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -418,7 +457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -474,6 +513,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -484,7 +554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -499,16 +569,41 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -788,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH25"/>
+  <dimension ref="A1:AH38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4:AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -815,6 +910,10 @@
     <col min="21" max="21" width="16.88671875" customWidth="1"/>
     <col min="22" max="22" width="19.109375" customWidth="1"/>
     <col min="23" max="23" width="25.77734375" customWidth="1"/>
+    <col min="24" max="24" width="13.21875" style="18" customWidth="1"/>
+    <col min="25" max="25" width="25.21875" style="18" customWidth="1"/>
+    <col min="26" max="26" width="13.6640625" style="18" customWidth="1"/>
+    <col min="27" max="27" width="28.33203125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -836,47 +935,47 @@
         <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="Q1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1"/>
-      <c r="Y1"/>
-      <c r="Z1"/>
-      <c r="AA1"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
       <c r="AB1"/>
       <c r="AC1"/>
       <c r="AD1"/>
@@ -906,7 +1005,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>22</v>
@@ -915,18 +1014,26 @@
         <v>19</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
+        <v>62</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="AB2"/>
       <c r="AC2"/>
       <c r="AD2"/>
@@ -956,10 +1063,10 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="12"/>
       <c r="AB3"/>
       <c r="AC3"/>
       <c r="AD3"/>
@@ -993,7 +1100,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>18</v>
@@ -1005,29 +1112,29 @@
         <v>18</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
+        <v>44</v>
+      </c>
+      <c r="R4" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
       <c r="AB4"/>
       <c r="AC4"/>
       <c r="AD4"/>
@@ -1064,10 +1171,10 @@
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
       <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
@@ -1095,34 +1202,34 @@
         <v>13</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="R6" s="7"/>
       <c r="S6" s="7" t="s">
@@ -1130,18 +1237,26 @@
       </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
+      <c r="X6" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y6" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z6" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA6" s="17" t="s">
+        <v>74</v>
+      </c>
       <c r="AB6"/>
       <c r="AC6"/>
       <c r="AD6"/>
@@ -1152,7 +1267,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1164,7 +1279,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H7" s="6">
         <v>6</v>
@@ -1185,31 +1300,33 @@
         <v>1</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q7">
         <v>3</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="S7" s="6">
         <v>0</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6" t="s">
-        <v>67</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="Y7" s="19"/>
+      <c r="AA7" s="19"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
@@ -1223,19 +1340,22 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="R8" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="S8" s="6">
         <v>0</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6" t="s">
-        <v>68</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="X8"/>
+      <c r="Y8" s="19"/>
+      <c r="AA8" s="19"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
@@ -1249,19 +1369,22 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="R9" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="S9" s="6">
         <v>0</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6" t="s">
-        <v>68</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="X9"/>
+      <c r="Y9" s="19"/>
+      <c r="AA9" s="19"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
@@ -1275,7 +1398,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="R10" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S10" s="6">
         <v>0</v>
@@ -1286,7 +1409,7 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
@@ -1301,7 +1424,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="R11" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="S11" s="6">
         <v>0</v>
@@ -1312,7 +1435,7 @@
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
@@ -1327,19 +1450,21 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="R12" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="S12" s="6">
         <v>0</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6" t="s">
-        <v>69</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="Y12" s="19"/>
+      <c r="AA12" s="19"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
@@ -1353,19 +1478,22 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="R13" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="S13" s="6">
         <v>0</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6" t="s">
-        <v>68</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="X13"/>
+      <c r="Y13" s="19"/>
+      <c r="AA13" s="19"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="H14" s="6"/>
@@ -1390,74 +1518,120 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="Y16" s="19"/>
+      <c r="AA16" s="19"/>
+    </row>
+    <row r="17" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="X17"/>
+      <c r="Y17" s="19"/>
+      <c r="AA17" s="19"/>
+    </row>
+    <row r="18" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="P20" s="6"/>
-    </row>
-    <row r="21" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="Y20" s="19"/>
+      <c r="AA20" s="19"/>
+    </row>
+    <row r="21" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="P21" s="6"/>
-    </row>
-    <row r="22" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="X21"/>
+      <c r="Y21" s="19"/>
+      <c r="AA21" s="19"/>
+    </row>
+    <row r="22" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="P22" s="6"/>
     </row>
-    <row r="23" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="P24" s="6"/>
-    </row>
-    <row r="25" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="Y24" s="19"/>
+      <c r="AA24" s="19"/>
+    </row>
+    <row r="25" spans="8:27" x14ac:dyDescent="0.25">
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="P25" s="6"/>
+      <c r="X25"/>
+      <c r="Y25" s="19"/>
+      <c r="AA25" s="19"/>
+    </row>
+    <row r="27" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="X27" s="20"/>
+    </row>
+    <row r="28" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="X28"/>
+      <c r="Y28" s="19"/>
+      <c r="AA28" s="19"/>
+    </row>
+    <row r="29" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="Y29" s="19"/>
+      <c r="AA29" s="19"/>
+    </row>
+    <row r="30" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="X30"/>
+      <c r="Y30" s="19"/>
+      <c r="AA30" s="19"/>
+    </row>
+    <row r="33" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="Y33" s="19"/>
+      <c r="AA33" s="19"/>
+    </row>
+    <row r="34" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X34"/>
+    </row>
+    <row r="37" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="Y37" s="19"/>
+      <c r="AA37" s="19"/>
+    </row>
+    <row r="38" spans="24:27" x14ac:dyDescent="0.25">
+      <c r="X38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="R1:W1"/>
-    <mergeCell ref="R4:W4"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="R4:AA4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/AoeConfig/AoeCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/AoeConfig/AoeCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\AoeConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26DC9BD-4FD3-4845-9700-BB36EB0D19DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D00CB2-1FB3-463F-90E5-3802F962671A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,9 +159,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>action_id</t>
-  </si>
-  <si>
     <t>对象选择器</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -375,6 +372,10 @@
   </si>
   <si>
     <t>filterCondition2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionIds</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -886,7 +887,7 @@
   <dimension ref="A1:AH38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4:AA4"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -935,34 +936,34 @@
         <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="O1" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R1" s="21" t="s">
         <v>16</v>
@@ -1005,34 +1006,34 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="U2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="V2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="W2" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Z2" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="AA2" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="AA2" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="AB2"/>
       <c r="AC2"/>
@@ -1100,7 +1101,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>18</v>
@@ -1112,19 +1113,19 @@
         <v>18</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R4" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S4" s="24"/>
       <c r="T4" s="24"/>
@@ -1202,60 +1203,60 @@
         <v>13</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="L6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="N6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R6" s="7"/>
       <c r="S6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="V6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="V6" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="W6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y6" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="Y6" s="17" t="s">
+      <c r="Z6" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="Z6" s="16" t="s">
+      <c r="AA6" s="17" t="s">
         <v>73</v>
-      </c>
-      <c r="AA6" s="17" t="s">
-        <v>74</v>
       </c>
       <c r="AB6"/>
       <c r="AC6"/>
@@ -1267,7 +1268,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1279,7 +1280,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="6">
         <v>6</v>
@@ -1300,30 +1301,30 @@
         <v>1</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q7">
         <v>3</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S7" s="6">
         <v>0</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y7" s="19"/>
       <c r="AA7" s="19"/>
@@ -1340,18 +1341,18 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="R8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S8" s="6">
         <v>0</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X8"/>
       <c r="Y8" s="19"/>
@@ -1369,18 +1370,18 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="R9" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S9" s="6">
         <v>0</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X9"/>
       <c r="Y9" s="19"/>
@@ -1398,7 +1399,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="R10" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S10" s="6">
         <v>0</v>
@@ -1409,7 +1410,7 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
@@ -1424,7 +1425,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="R11" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S11" s="6">
         <v>0</v>
@@ -1435,7 +1436,7 @@
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
@@ -1450,18 +1451,18 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="R12" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S12" s="6">
         <v>0</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y12" s="19"/>
       <c r="AA12" s="19"/>
@@ -1478,18 +1479,18 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="R13" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S13" s="6">
         <v>0</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X13"/>
       <c r="Y13" s="19"/>
